--- a/dataSetGroupTesting/Tinh toan.xlsx
+++ b/dataSetGroupTesting/Tinh toan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9780" windowHeight="8760" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="9780" windowHeight="8700" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="abs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
   <si>
     <t>Ver</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>CA%</t>
+  </si>
+  <si>
+    <t>CA(i)%</t>
   </si>
 </sst>
 </file>
@@ -5259,7 +5262,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5267,7 +5270,8 @@
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="6" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
@@ -5284,6 +5288,9 @@
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5307,6 +5314,10 @@
       <c r="C2">
         <v>22</v>
       </c>
+      <c r="D2">
+        <f>ROUND(B2*100/C2,2)</f>
+        <v>50</v>
+      </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
@@ -5333,6 +5344,10 @@
       <c r="C3">
         <v>9</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D36" si="0">ROUND(B3*100/C3,2)</f>
+        <v>55.56</v>
+      </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
@@ -5341,11 +5356,11 @@
         <v>114</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="0">SUM(C3:C9)</f>
+        <f t="shared" ref="I3:I6" si="1">SUM(C3:C9)</f>
         <v>261</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="1">ROUND(H3*100/I3,2)</f>
+        <f t="shared" ref="J3:J6" si="2">ROUND(H3*100/I3,2)</f>
         <v>43.68</v>
       </c>
     </row>
@@ -5359,6 +5374,10 @@
       <c r="C4">
         <v>17</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>41.18</v>
+      </c>
       <c r="G4" s="4">
         <v>2</v>
       </c>
@@ -5367,11 +5386,11 @@
         <v>114</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.68</v>
       </c>
     </row>
@@ -5385,6 +5404,10 @@
       <c r="C5">
         <v>39</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>76.92</v>
+      </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
@@ -5393,11 +5416,11 @@
         <v>108</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.38</v>
       </c>
     </row>
@@ -5411,6 +5434,10 @@
       <c r="C6">
         <v>26</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>65.38</v>
+      </c>
       <c r="G6" s="4">
         <v>4</v>
       </c>
@@ -5419,11 +5446,11 @@
         <v>87</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.33</v>
       </c>
     </row>
@@ -5437,6 +5464,10 @@
       <c r="C7">
         <v>28</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5448,6 +5479,10 @@
       <c r="C8">
         <v>120</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>31.67</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5459,6 +5494,10 @@
       <c r="C9">
         <v>22</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>45.45</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5470,6 +5509,10 @@
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>33.33</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5481,6 +5524,10 @@
       <c r="C11">
         <v>17</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>35.29</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5492,6 +5539,10 @@
       <c r="C12">
         <v>39</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>61.54</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5503,6 +5554,10 @@
       <c r="C13">
         <v>26</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>61.54</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5514,6 +5569,10 @@
       <c r="C14">
         <v>28</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5525,6 +5584,10 @@
       <c r="C15">
         <v>120</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>29.17</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5536,8 +5599,12 @@
       <c r="C16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -5547,8 +5614,12 @@
       <c r="C17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -5558,8 +5629,12 @@
       <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -5569,8 +5644,12 @@
       <c r="C19">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>61.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -5580,8 +5659,12 @@
       <c r="C20">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>61.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -5591,8 +5674,12 @@
       <c r="C21">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -5602,8 +5689,12 @@
       <c r="C22">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -5613,8 +5704,12 @@
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -5624,8 +5719,12 @@
       <c r="C24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -5635,8 +5734,12 @@
       <c r="C25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -5646,8 +5749,12 @@
       <c r="C26">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>71.790000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -5657,8 +5764,12 @@
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -5668,8 +5779,12 @@
       <c r="C28">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -5679,8 +5794,12 @@
       <c r="C29">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>4</v>
       </c>
@@ -5690,8 +5809,12 @@
       <c r="C30">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>40.909999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4</v>
       </c>
@@ -5701,8 +5824,12 @@
       <c r="C31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -5712,8 +5839,12 @@
       <c r="C32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -5723,8 +5854,12 @@
       <c r="C33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>4</v>
       </c>
@@ -5734,8 +5869,12 @@
       <c r="C34">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>42.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4</v>
       </c>
@@ -5745,8 +5884,12 @@
       <c r="C35">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>35.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>4</v>
       </c>
@@ -5755,6 +5898,10 @@
       </c>
       <c r="C36">
         <v>120</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
